--- a/assets/data/AbilityConfig.xlsx
+++ b/assets/data/AbilityConfig.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6FB160-6900-4111-A924-3C65F18492CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B5773-D876-401D-859B-E1E10DEA9A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="720" windowWidth="16560" windowHeight="18165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2265" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Buff" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>IID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,42 @@
   </si>
   <si>
     <t>B033</t>
+  </si>
+  <si>
+    <t>A06U</t>
+  </si>
+  <si>
+    <t>A06W</t>
+  </si>
+  <si>
+    <t>A077</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>B036</t>
+  </si>
+  <si>
+    <t>B037</t>
+  </si>
+  <si>
+    <t>B03B</t>
+  </si>
+  <si>
+    <t>B03Y</t>
+  </si>
+  <si>
+    <t>BID_FRENZY_SCROLL</t>
+  </si>
+  <si>
+    <t>BID_DEFEND_SCROLL</t>
+  </si>
+  <si>
+    <t>BID_SPELL_REFLECT_SCROLL</t>
+  </si>
+  <si>
+    <t>BID_INVUL_POTION</t>
   </si>
 </sst>
 </file>
@@ -302,13 +338,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,15 +659,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -939,8 +975,53 @@
         <v>81</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>